--- a/03スプリントバックログ/Scrum1_スプリントバックログ .xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD521472-158F-46E6-A3AB-27E418DB44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E86BB-206B-4364-86DA-BD99C7502017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="444" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -227,20 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全体のアニメーション付け</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>環境確認と共有</t>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
@@ -346,13 +332,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ウチヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未実装</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,6 +501,19 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成は完了　連携がまだ</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1006,10 +998,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1050,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1091,43 +1083,43 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.9" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -1140,51 +1132,51 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.9" customHeight="1">
@@ -1196,123 +1188,111 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="39.9" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="39.9" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>29</v>
-      </c>
+    <row r="15" spans="1:6">
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1363,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.9" customHeight="1">
